--- a/biology/Botanique/Xylaire/Xylaire.xlsx
+++ b/biology/Botanique/Xylaire/Xylaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylaire
 Xylaria, en français xylaire, est un genre de champignons ascomycètes de la famille des Xylariaceae, communément trouvé sur les bois morts et les souches des arbres feuillus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les xylaires sont reconnaissables par leurs stromas dressés et souvent stipés, en forme de massue ou ramifiés. Les conidiophores et les conidies sont blancs et produits sur les stromas ; les périthèces, formés dans la couche externe des stromas, sont noirs. Les asques renferment huit ascospores de couleur sombre, monocellulaires, plus ou moins fusoïdes.
 </t>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont, pour la plupart des espèces, des saprophytes qui vivent sur le bois mort.
 </t>
@@ -574,9 +590,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (26 sept. 2015)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (26 sept. 2015) :
 Xylaria albisquamula F. San Martín, J.D. Rogers &amp; P. Lavín
 Xylaria apiculata Cooke
 Xylaria arbuscula Sacc.
